--- a/finaldata.xlsx
+++ b/finaldata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\62670\Documents\MATLAB\blob_storage\228a9f9c-2fbf-4188-953b-2fe6a83168d2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\62670\Documents\yq\data\Experimental-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94231E8-0BAC-4D8E-8E57-6B75E621520E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BB7A9A-04BB-43D4-A6C9-A505EEF84058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,137 +25,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
-  <si>
-    <t>中心Th</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界Th</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界Tc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中心Tc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中心热流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界热流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3R中心功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3R边界功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7R中心功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7R边界功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10R中心功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10R边界功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3R中心效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3R边界效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7R中心效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7R边界效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10R中心效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10R边界效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3R效率提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7R效率提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10R效率提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近似效率提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3R中心电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3R边界电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7R中心电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7R边界电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10R中心电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10R边界电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中心开路电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界开路电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高温端（低温端固定10摄氏度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准差</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+  <si>
+    <t>hot（cold 10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core Th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core Tc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background Th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background Tc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coreTc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core heat flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background heat flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3R core V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3R core P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3R core eta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3R background V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3R background P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3R background eta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3R enhancement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7R core V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7R core P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7R core eta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7R background V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7R background P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7R background eta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7R enhancement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10R core V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10R core P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10R core eta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10R background V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10R background P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10R background eta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10R enhancement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core open-circuit V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>av</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background open-circuit V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V enhancement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroundTh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroundTc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3R core V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,12 +509,12 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
@@ -507,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>30</v>
@@ -527,7 +543,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <f>B44</f>
@@ -550,32 +566,32 @@
         <v>41.77</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <f>B2+273.15</f>
+        <f t="shared" ref="I2:M3" si="0">B2+273.15</f>
         <v>303.4133333333333</v>
       </c>
       <c r="J2">
-        <f>C2+273.15</f>
+        <f t="shared" si="0"/>
         <v>306.82333333333332</v>
       </c>
       <c r="K2">
-        <f>D2+273.15</f>
+        <f t="shared" si="0"/>
         <v>309.43666666666667</v>
       </c>
       <c r="L2">
-        <f>E2+273.15</f>
+        <f t="shared" si="0"/>
         <v>312.40999999999997</v>
       </c>
       <c r="M2">
-        <f>F2+273.15</f>
+        <f t="shared" si="0"/>
         <v>314.91999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <f>B49</f>
@@ -598,35 +614,35 @@
         <v>41.543333333333329</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <f>B3+273.15</f>
+        <f t="shared" si="0"/>
         <v>303.30666666666662</v>
       </c>
       <c r="J3">
-        <f>C3+273.15</f>
+        <f t="shared" si="0"/>
         <v>306.67666666666662</v>
       </c>
       <c r="K3">
-        <f>D3+273.15</f>
+        <f t="shared" si="0"/>
         <v>309.26666666666665</v>
       </c>
       <c r="L3">
-        <f>E3+273.15</f>
+        <f t="shared" si="0"/>
         <v>312.20999999999998</v>
       </c>
       <c r="M3">
-        <f>F3+273.15</f>
+        <f t="shared" si="0"/>
         <v>314.69333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4" si="0">(B2-B3)*400*3.14*0.0025*0.0025/0.005</f>
+        <f t="shared" ref="B4" si="1">(B2-B3)*400*3.14*0.0025*0.0025/0.005</f>
         <v>0.16746666666667054</v>
       </c>
       <c r="C4" s="1">
@@ -647,32 +663,32 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <f>B5+273.15</f>
+        <f t="shared" ref="I4:M5" si="2">B5+273.15</f>
         <v>302.81</v>
       </c>
       <c r="J4">
-        <f>C5+273.15</f>
+        <f t="shared" si="2"/>
         <v>305.04333333333329</v>
       </c>
       <c r="K4">
-        <f>D5+273.15</f>
+        <f t="shared" si="2"/>
         <v>307.80666666666662</v>
       </c>
       <c r="L4">
-        <f>E5+273.15</f>
+        <f t="shared" si="2"/>
         <v>310.40666666666664</v>
       </c>
       <c r="M4">
-        <f>F5+273.15</f>
+        <f t="shared" si="2"/>
         <v>312.91999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <f>B54</f>
@@ -696,32 +712,32 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <f>B6+273.15</f>
+        <f t="shared" si="2"/>
         <v>302.7233333333333</v>
       </c>
       <c r="J5">
-        <f>C6+273.15</f>
+        <f t="shared" si="2"/>
         <v>304.94</v>
       </c>
       <c r="K5">
-        <f>D6+273.15</f>
+        <f t="shared" si="2"/>
         <v>307.66666666666663</v>
       </c>
       <c r="L5">
-        <f>E6+273.15</f>
+        <f t="shared" si="2"/>
         <v>310.25</v>
       </c>
       <c r="M5">
-        <f>F6+273.15</f>
+        <f t="shared" si="2"/>
         <v>312.75</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <f>B59</f>
@@ -747,10 +763,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7" si="1">(B5-B6)*400*3.14*0.0025*0.0025/0.005</f>
+        <f t="shared" ref="B7" si="3">(B5-B6)*400*3.14*0.0025*0.0025/0.005</f>
         <v>0.13606666666666564</v>
       </c>
       <c r="C7" s="1">
@@ -773,7 +789,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <f>B64</f>
@@ -798,10 +814,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10" si="2">B9^2/3</f>
+        <f t="shared" ref="B10" si="4">B9^2/3</f>
         <v>37.218148148148146</v>
       </c>
       <c r="C10">
@@ -823,10 +839,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11" si="3">B10/B$4/10000</f>
+        <f t="shared" ref="B11" si="5">B10/B$4/10000</f>
         <v>2.222421266808158E-2</v>
       </c>
       <c r="C11">
@@ -848,7 +864,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <f>B69</f>
@@ -873,10 +889,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13" si="4">B12^2/3</f>
+        <f t="shared" ref="B13" si="6">B12^2/3</f>
         <v>18.418148148148148</v>
       </c>
       <c r="C13">
@@ -901,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14" si="5">B13/B$7/10000</f>
+        <f t="shared" ref="B14" si="7">B13/B$7/10000</f>
         <v>1.3536120638031567E-2</v>
       </c>
       <c r="C14">
@@ -923,10 +939,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15" si="6">(B11-B14)/B14</f>
+        <f t="shared" ref="B15" si="8">(B11-B14)/B14</f>
         <v>0.64184505017188154</v>
       </c>
       <c r="C15">
@@ -948,7 +964,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <f>B74</f>
@@ -973,10 +989,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17" si="7">B16^2/7</f>
+        <f t="shared" ref="B17" si="9">B16^2/7</f>
         <v>40.801428571428566</v>
       </c>
       <c r="C17">
@@ -998,10 +1014,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18" si="8">B17/B$4/10000</f>
+        <f t="shared" ref="B18" si="10">B17/B$4/10000</f>
         <v>2.4363910373065858E-2</v>
       </c>
       <c r="C18">
@@ -1023,7 +1039,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <f>B79</f>
@@ -1048,10 +1064,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20" si="9">B19^2/7</f>
+        <f t="shared" ref="B20" si="11">B19^2/7</f>
         <v>18.67444444444444</v>
       </c>
       <c r="C20">
@@ -1073,10 +1089,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21" si="10">B20/B$7/10000</f>
+        <f t="shared" ref="B21" si="12">B20/B$7/10000</f>
         <v>1.3724481463335067E-2</v>
       </c>
       <c r="C21">
@@ -1098,10 +1114,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22" si="11">(B18-B21)/B21</f>
+        <f t="shared" ref="B22" si="13">(B18-B21)/B21</f>
         <v>0.77521536519642009</v>
       </c>
       <c r="C22">
@@ -1123,7 +1139,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <f>B84</f>
@@ -1148,10 +1164,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24" si="12">B23^2/10</f>
+        <f t="shared" ref="B24" si="14">B23^2/10</f>
         <v>37.377777777777773</v>
       </c>
       <c r="C24">
@@ -1173,10 +1189,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25" si="13">B24/B$4/10000</f>
+        <f t="shared" ref="B25" si="15">B24/B$4/10000</f>
         <v>2.2319532908704365E-2</v>
       </c>
       <c r="C25">
@@ -1198,7 +1214,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <f>B89</f>
@@ -1223,10 +1239,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="14">B26^2/10</f>
+        <f t="shared" ref="B27" si="16">B26^2/10</f>
         <v>16.986777777777778</v>
       </c>
       <c r="C27">
@@ -1248,10 +1264,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28" si="15">B27/B$7/10000</f>
+        <f t="shared" ref="B28" si="17">B27/B$7/10000</f>
         <v>1.2484158092438441E-2</v>
       </c>
       <c r="C28">
@@ -1273,10 +1289,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29" si="16">(B25-B28)/B28</f>
+        <f t="shared" ref="B29" si="18">(B25-B28)/B28</f>
         <v>0.78782844172913313</v>
       </c>
       <c r="C29">
@@ -1298,7 +1314,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>30.2</v>
@@ -1352,7 +1368,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <f>AVERAGE(B30:B32)</f>
@@ -1363,7 +1379,7 @@
         <v>35.266666666666666</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33" si="17">AVERAGE(D30:D32)</f>
+        <f t="shared" ref="D33" si="19">AVERAGE(D30:D32)</f>
         <v>41</v>
       </c>
       <c r="E33">
@@ -1377,7 +1393,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <f>_xlfn.STDEV.S(B30:B32)</f>
@@ -1388,7 +1404,7 @@
         <v>0.25166114784235816</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34" si="18">_xlfn.STDEV.S(D30:D32)</f>
+        <f t="shared" ref="D34" si="20">_xlfn.STDEV.S(D30:D32)</f>
         <v>0.43588989435406705</v>
       </c>
       <c r="E34">
@@ -1402,7 +1418,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>22.9</v>
@@ -1456,7 +1472,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38">
         <f>AVERAGE(B35:B37)</f>
@@ -1467,7 +1483,7 @@
         <v>27.166666666666668</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38" si="19">AVERAGE(D35:D37)</f>
+        <f t="shared" ref="D38" si="21">AVERAGE(D35:D37)</f>
         <v>32.5</v>
       </c>
       <c r="E38">
@@ -1481,7 +1497,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39">
         <f>_xlfn.STDEV.S(B35:B37)</f>
@@ -1492,7 +1508,7 @@
         <v>5.7735026918961346E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39" si="20">_xlfn.STDEV.S(D35:D37)</f>
+        <f t="shared" ref="D39" si="22">_xlfn.STDEV.S(D35:D37)</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="E39">
@@ -1506,7 +1522,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <f>(B33-B38)/B38</f>
@@ -1531,7 +1547,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41">
         <v>30.22</v>
@@ -1585,7 +1601,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <f>AVERAGE(B41:B43)</f>
@@ -1596,7 +1612,7 @@
         <v>33.673333333333325</v>
       </c>
       <c r="D44">
-        <f t="shared" ref="D44" si="21">AVERAGE(D41:D43)</f>
+        <f t="shared" ref="D44" si="23">AVERAGE(D41:D43)</f>
         <v>36.286666666666669</v>
       </c>
       <c r="E44">
@@ -1610,7 +1626,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <f>_xlfn.STDEV.S(B41:B43)</f>
@@ -1621,7 +1637,7 @@
         <v>0.20033305601755921</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45" si="22">_xlfn.STDEV.S(D41:D43)</f>
+        <f t="shared" ref="D45" si="24">_xlfn.STDEV.S(D41:D43)</f>
         <v>0.10503967504392528</v>
       </c>
       <c r="E45">
@@ -1635,7 +1651,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46">
         <v>30.11</v>
@@ -1689,7 +1705,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49">
         <f>AVERAGE(B46:B48)</f>
@@ -1700,7 +1716,7 @@
         <v>33.526666666666664</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49" si="23">AVERAGE(D46:D48)</f>
+        <f t="shared" ref="D49" si="25">AVERAGE(D46:D48)</f>
         <v>36.116666666666667</v>
       </c>
       <c r="E49">
@@ -1714,7 +1730,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50">
         <f>_xlfn.VAR.P(B46:B48)</f>
@@ -1725,7 +1741,7 @@
         <v>2.6688888888888668E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50" si="24">_xlfn.VAR.P(D46:D48)</f>
+        <f t="shared" ref="D50" si="26">_xlfn.VAR.P(D46:D48)</f>
         <v>7.3555555555556125E-3</v>
       </c>
       <c r="E50">
@@ -1739,7 +1755,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B51">
         <v>29.82</v>
@@ -1793,7 +1809,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <f>AVERAGE(B51:B53)</f>
@@ -1812,13 +1828,13 @@
         <v>37.256666666666668</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54" si="25">AVERAGE(F51:F53)</f>
+        <f t="shared" ref="F54" si="27">AVERAGE(F51:F53)</f>
         <v>39.770000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <f>_xlfn.STDEV.S(B51:B53)</f>
@@ -1829,7 +1845,7 @@
         <v>9.7125348562223532E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55" si="26">_xlfn.STDEV.S(D51:D53)</f>
+        <f t="shared" ref="D55" si="28">_xlfn.STDEV.S(D51:D53)</f>
         <v>4.6188021535169078E-2</v>
       </c>
       <c r="E55">
@@ -1843,7 +1859,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>29.73</v>
@@ -1897,7 +1913,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <f>AVERAGE(B56:B58)</f>
@@ -1908,7 +1924,7 @@
         <v>31.790000000000003</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59" si="27">AVERAGE(D56:D58)</f>
+        <f t="shared" ref="D59" si="29">AVERAGE(D56:D58)</f>
         <v>34.516666666666666</v>
       </c>
       <c r="E59">
@@ -1922,7 +1938,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <f>_xlfn.STDEV.S(B56:B58)</f>
@@ -1933,7 +1949,7 @@
         <v>0.10148891565092179</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60" si="28">_xlfn.STDEV.S(D56:D58)</f>
+        <f t="shared" ref="D60" si="30">_xlfn.STDEV.S(D56:D58)</f>
         <v>5.50757054728606E-2</v>
       </c>
       <c r="E60">
@@ -1947,7 +1963,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B61">
         <v>10.6</v>
@@ -2001,7 +2017,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64">
         <f>AVERAGE(B61:B63)</f>
@@ -2012,7 +2028,7 @@
         <v>12.866666666666667</v>
       </c>
       <c r="D64">
-        <f t="shared" ref="D64" si="29">AVERAGE(D61:D63)</f>
+        <f t="shared" ref="D64" si="31">AVERAGE(D61:D63)</f>
         <v>14.766666666666666</v>
       </c>
       <c r="E64">
@@ -2026,7 +2042,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B65">
         <f>_xlfn.STDEV.S(B61:B63)</f>
@@ -2037,7 +2053,7 @@
         <v>0.32145502536643172</v>
       </c>
       <c r="D65">
-        <f t="shared" ref="D65" si="30">_xlfn.STDEV.S(D61:D63)</f>
+        <f t="shared" ref="D65" si="32">_xlfn.STDEV.S(D61:D63)</f>
         <v>0.15275252316519511</v>
       </c>
       <c r="E65">
@@ -2051,7 +2067,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B66">
         <v>7.2</v>
@@ -2105,7 +2121,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69">
         <f>AVERAGE(B66:B68)</f>
@@ -2116,7 +2132,7 @@
         <v>9.1666666666666661</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69" si="31">AVERAGE(D66:D68)</f>
+        <f t="shared" ref="D69" si="33">AVERAGE(D66:D68)</f>
         <v>11.5</v>
       </c>
       <c r="E69">
@@ -2130,7 +2146,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B70">
         <f>_xlfn.STDEV.S(B66:B68)</f>
@@ -2141,7 +2157,7 @@
         <v>5.7735026918962373E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70" si="32">_xlfn.STDEV.S(D66:D68)</f>
+        <f t="shared" ref="D70" si="34">_xlfn.STDEV.S(D66:D68)</f>
         <v>0.19999999999999929</v>
       </c>
       <c r="E70">
@@ -2155,7 +2171,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B71">
         <v>17</v>
@@ -2209,7 +2225,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74">
         <f>AVERAGE(B71:B73)</f>
@@ -2220,7 +2236,7 @@
         <v>19.933333333333334</v>
       </c>
       <c r="D74">
-        <f t="shared" ref="D74" si="33">AVERAGE(D71:D73)</f>
+        <f t="shared" ref="D74" si="35">AVERAGE(D71:D73)</f>
         <v>23.066666666666666</v>
       </c>
       <c r="E74">
@@ -2234,7 +2250,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B75">
         <f>_xlfn.STDEV.S(B71:B73)</f>
@@ -2245,7 +2261,7 @@
         <v>5.77350269189634E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75" si="34">_xlfn.STDEV.S(D71:D73)</f>
+        <f t="shared" ref="D75" si="36">_xlfn.STDEV.S(D71:D73)</f>
         <v>0.11547005383792475</v>
       </c>
       <c r="E75">
@@ -2259,7 +2275,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B76">
         <v>11.6</v>
@@ -2313,7 +2329,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79">
         <f>AVERAGE(B76:B78)</f>
@@ -2324,7 +2340,7 @@
         <v>14.4</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="35">AVERAGE(D76:D78)</f>
+        <f t="shared" ref="D79" si="37">AVERAGE(D76:D78)</f>
         <v>18.099999999999998</v>
       </c>
       <c r="E79">
@@ -2338,7 +2354,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80">
         <f>_xlfn.STDEV.S(B76:B78)</f>
@@ -2349,7 +2365,7 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" ref="D80" si="36">_xlfn.STDEV.S(D76:D78)</f>
+        <f t="shared" ref="D80" si="38">_xlfn.STDEV.S(D76:D78)</f>
         <v>0.36055512754639862</v>
       </c>
       <c r="E80">
@@ -2363,7 +2379,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B81">
         <v>19.7</v>
@@ -2417,7 +2433,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B84">
         <f>AVERAGE(B81:B83)</f>
@@ -2428,7 +2444,7 @@
         <v>23.3</v>
       </c>
       <c r="D84">
-        <f t="shared" ref="D84" si="37">AVERAGE(D81:D83)</f>
+        <f t="shared" ref="D84" si="39">AVERAGE(D81:D83)</f>
         <v>26.433333333333334</v>
       </c>
       <c r="E84">
@@ -2442,7 +2458,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B85">
         <f>_xlfn.STDEV.S(B81:B83)</f>
@@ -2453,7 +2469,7 @@
         <v>0.17320508075688609</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="38">_xlfn.STDEV.S(D81:D83)</f>
+        <f t="shared" ref="D85" si="40">_xlfn.STDEV.S(D81:D83)</f>
         <v>0.11547005383792475</v>
       </c>
       <c r="E85">
@@ -2467,7 +2483,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B86">
         <v>13</v>
@@ -2521,7 +2537,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B89">
         <f>AVERAGE(B86:B88)</f>
@@ -2532,7 +2548,7 @@
         <v>17</v>
       </c>
       <c r="D89">
-        <f t="shared" ref="D89" si="39">AVERAGE(D86:D88)</f>
+        <f t="shared" ref="D89" si="41">AVERAGE(D86:D88)</f>
         <v>21</v>
       </c>
       <c r="E89">
@@ -2546,7 +2562,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B90">
         <f>_xlfn.STDEV.S(B86:B88)</f>
@@ -2557,7 +2573,7 @@
         <v>0.39999999999999858</v>
       </c>
       <c r="D90">
-        <f t="shared" ref="D90" si="40">_xlfn.STDEV.S(D86:D88)</f>
+        <f t="shared" ref="D90" si="42">_xlfn.STDEV.S(D86:D88)</f>
         <v>0.69999999999999929</v>
       </c>
       <c r="E90">

--- a/finaldata.xlsx
+++ b/finaldata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\62670\Documents\yq\data\Experimental-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BB7A9A-04BB-43D4-A6C9-A505EEF84058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1023CA-53F7-44F2-BEB1-2134C309E5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -547,46 +547,46 @@
       </c>
       <c r="B2">
         <f>B44</f>
-        <v>30.263333333333335</v>
+        <v>30.346666666666668</v>
       </c>
       <c r="C2">
         <f>C44</f>
-        <v>33.673333333333325</v>
+        <v>34.176666666666669</v>
       </c>
       <c r="D2">
         <f>D44</f>
-        <v>36.286666666666669</v>
+        <v>37.910000000000004</v>
       </c>
       <c r="E2">
         <f>E44</f>
-        <v>39.26</v>
+        <v>41.07</v>
       </c>
       <c r="F2">
         <f>F44</f>
-        <v>41.77</v>
+        <v>44.216666666666669</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:M3" si="0">B2+273.15</f>
-        <v>303.4133333333333</v>
+        <v>303.49666666666667</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>306.82333333333332</v>
+        <v>307.32666666666665</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>309.43666666666667</v>
+        <v>311.06</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>312.40999999999997</v>
+        <v>314.21999999999997</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>314.91999999999996</v>
+        <v>317.36666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -595,46 +595,46 @@
       </c>
       <c r="B3">
         <f>B49</f>
-        <v>30.156666666666666</v>
+        <v>29.886666666666667</v>
       </c>
       <c r="C3">
         <f>C49</f>
-        <v>33.526666666666664</v>
+        <v>33.593333333333334</v>
       </c>
       <c r="D3">
         <f>D49</f>
-        <v>36.116666666666667</v>
+        <v>37.213333333333331</v>
       </c>
       <c r="E3">
         <f>E49</f>
-        <v>39.06</v>
+        <v>40.253333333333337</v>
       </c>
       <c r="F3">
         <f>F49</f>
-        <v>41.543333333333329</v>
+        <v>43.283333333333339</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>303.30666666666662</v>
+        <v>303.03666666666663</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>306.67666666666662</v>
+        <v>306.74333333333334</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>309.26666666666665</v>
+        <v>310.36333333333329</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>312.20999999999998</v>
+        <v>313.40333333333331</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>314.69333333333333</v>
+        <v>316.43333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -643,23 +643,23 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4" si="1">(B2-B3)*400*3.14*0.0025*0.0025/0.005</f>
-        <v>0.16746666666667054</v>
+        <v>0.7222000000000014</v>
       </c>
       <c r="C4" s="1">
         <f>(C2-C3)*400*3.14*0.0025*0.0025/0.005</f>
-        <v>0.23026666666665804</v>
+        <v>0.91583333333333727</v>
       </c>
       <c r="D4" s="1">
         <f>(D2-D3)*400*3.14*0.0025*0.0025/0.005</f>
-        <v>0.26690000000000269</v>
+        <v>1.0937666666666759</v>
       </c>
       <c r="E4" s="1">
         <f>(E2-E3)*400*3.14*0.0025*0.0025/0.005</f>
-        <v>0.31399999999999334</v>
+        <v>1.2821666666666607</v>
       </c>
       <c r="F4" s="1">
         <f>(F2-F3)*400*3.14*0.0025*0.0025/0.005</f>
-        <v>0.35586666666667766</v>
+        <v>1.4653333333333283</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
@@ -667,23 +667,23 @@
       </c>
       <c r="I4">
         <f t="shared" ref="I4:M5" si="2">B5+273.15</f>
-        <v>302.81</v>
+        <v>302.54333333333329</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>305.04333333333329</v>
+        <v>306.07333333333332</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>307.80666666666662</v>
+        <v>309.18333333333328</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>310.40666666666664</v>
+        <v>312.48333333333329</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>312.91999999999996</v>
+        <v>315.10666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -692,23 +692,23 @@
       </c>
       <c r="B5" s="1">
         <f>B54</f>
-        <v>29.66</v>
+        <v>29.393333333333334</v>
       </c>
       <c r="C5" s="1">
         <f>C54</f>
-        <v>31.893333333333334</v>
+        <v>32.923333333333339</v>
       </c>
       <c r="D5" s="1">
         <f>D54</f>
-        <v>34.656666666666666</v>
+        <v>36.033333333333331</v>
       </c>
       <c r="E5" s="1">
         <f>E54</f>
-        <v>37.256666666666668</v>
+        <v>39.333333333333336</v>
       </c>
       <c r="F5" s="1">
         <f>F54</f>
-        <v>39.770000000000003</v>
+        <v>41.956666666666671</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
@@ -716,23 +716,23 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>302.7233333333333</v>
+        <v>302.19666666666666</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>304.94</v>
+        <v>305.60999999999996</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>307.66666666666663</v>
+        <v>308.58999999999997</v>
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>310.25</v>
+        <v>311.76333333333332</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>312.75</v>
+        <v>314.26</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -741,23 +741,23 @@
       </c>
       <c r="B6" s="1">
         <f>B59</f>
-        <v>29.573333333333334</v>
+        <v>29.046666666666667</v>
       </c>
       <c r="C6" s="1">
         <f>C59</f>
-        <v>31.790000000000003</v>
+        <v>32.46</v>
       </c>
       <c r="D6" s="1">
         <f>D59</f>
-        <v>34.516666666666666</v>
+        <v>35.44</v>
       </c>
       <c r="E6" s="1">
         <f>E59</f>
-        <v>37.1</v>
+        <v>38.613333333333337</v>
       </c>
       <c r="F6" s="1">
         <f>F59</f>
-        <v>39.6</v>
+        <v>41.11</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -767,23 +767,23 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ref="B7" si="3">(B5-B6)*400*3.14*0.0025*0.0025/0.005</f>
-        <v>0.13606666666666564</v>
+        <v>0.54426666666666812</v>
       </c>
       <c r="C7" s="1">
         <f>(C5-C6)*400*3.14*0.0025*0.0025/0.005</f>
-        <v>0.16223333333333081</v>
+        <v>0.72743333333334104</v>
       </c>
       <c r="D7" s="1">
         <f>(D5-D6)*400*3.14*0.0025*0.0025/0.005</f>
-        <v>0.21980000000000088</v>
+        <v>0.93153333333333399</v>
       </c>
       <c r="E7" s="1">
         <f>(E5-E6)*400*3.14*0.0025*0.0025/0.005</f>
-        <v>0.24596666666666608</v>
+        <v>1.1303999999999983</v>
       </c>
       <c r="F7" s="1">
         <f>(F5-F6)*400*3.14*0.0025*0.0025/0.005</f>
-        <v>0.26690000000000269</v>
+        <v>1.3292666666666737</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B9">
         <f>B64</f>
-        <v>10.566666666666666</v>
+        <v>10.699999999999998</v>
       </c>
       <c r="C9">
         <f>C64</f>
@@ -804,8 +804,7 @@
         <v>14.766666666666666</v>
       </c>
       <c r="E9">
-        <f>E64</f>
-        <v>16.400000000000002</v>
+        <v>16.7</v>
       </c>
       <c r="F9">
         <f>F64</f>
@@ -818,7 +817,7 @@
       </c>
       <c r="B10">
         <f t="shared" ref="B10" si="4">B9^2/3</f>
-        <v>37.218148148148146</v>
+        <v>38.16333333333332</v>
       </c>
       <c r="C10">
         <f>C9^2/3</f>
@@ -830,7 +829,7 @@
       </c>
       <c r="E10">
         <f>E9^2/3</f>
-        <v>89.653333333333364</v>
+        <v>92.963333333333324</v>
       </c>
       <c r="F10">
         <f>F9^2/3</f>
@@ -843,23 +842,23 @@
       </c>
       <c r="B11">
         <f t="shared" ref="B11" si="5">B10/B$4/10000</f>
-        <v>2.222421266808158E-2</v>
+        <v>5.2843164405058495E-3</v>
       </c>
       <c r="C11">
         <f>C10/C$4/10000</f>
-        <v>2.3965128996977027E-2</v>
+        <v>6.0255181478111155E-3</v>
       </c>
       <c r="D11">
         <f>D10/D$4/10000</f>
-        <v>2.7232976700941953E-2</v>
+        <v>6.6453675203255588E-3</v>
       </c>
       <c r="E11">
         <f>E10/E$4/10000</f>
-        <v>2.8552016985138619E-2</v>
+        <v>7.2504874561289808E-3</v>
       </c>
       <c r="F11">
         <f>F10/F$4/10000</f>
-        <v>3.1597456392322407E-2</v>
+        <v>7.6736679809928489E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -868,19 +867,19 @@
       </c>
       <c r="B12">
         <f>B69</f>
-        <v>7.4333333333333336</v>
+        <v>7.3666666666666671</v>
       </c>
       <c r="C12">
         <f>C69</f>
-        <v>9.1666666666666661</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="D12">
         <f>D69</f>
-        <v>11.5</v>
+        <v>11.066666666666668</v>
       </c>
       <c r="E12">
         <f>E69</f>
-        <v>12.766666666666666</v>
+        <v>12.833333333333334</v>
       </c>
       <c r="F12">
         <f>F69</f>
@@ -893,19 +892,19 @@
       </c>
       <c r="B13">
         <f t="shared" ref="B13" si="6">B12^2/3</f>
-        <v>18.418148148148148</v>
+        <v>18.089259259259261</v>
       </c>
       <c r="C13">
         <f>C12^2/3</f>
-        <v>28.009259259259256</v>
+        <v>28.213333333333338</v>
       </c>
       <c r="D13">
         <f>D12^2/3</f>
-        <v>44.083333333333336</v>
+        <v>40.823703703703714</v>
       </c>
       <c r="E13">
         <f>E12^2/3</f>
-        <v>54.329259259259253</v>
+        <v>54.898148148148152</v>
       </c>
       <c r="F13">
         <f>F12^2/3</f>
@@ -918,23 +917,23 @@
       </c>
       <c r="B14">
         <f t="shared" ref="B14" si="7">B13/B$7/10000</f>
-        <v>1.3536120638031567E-2</v>
+        <v>3.3236022646850587E-3</v>
       </c>
       <c r="C14">
         <f>C13/C$7/10000</f>
-        <v>1.7264799214665928E-2</v>
+        <v>3.8784768363652623E-3</v>
       </c>
       <c r="D14">
         <f>D13/D$7/10000</f>
-        <v>2.0056111616621092E-2</v>
+        <v>4.3824200640918574E-3</v>
       </c>
       <c r="E14">
         <f>E13/E$7/10000</f>
-        <v>2.2088057701284476E-2</v>
+        <v>4.856524075384663E-3</v>
       </c>
       <c r="F14">
         <f>F13/F$7/10000</f>
-        <v>2.6258274010240775E-2</v>
+        <v>5.2723306083554558E-3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -943,23 +942,23 @@
       </c>
       <c r="B15">
         <f t="shared" ref="B15" si="8">(B11-B14)/B14</f>
-        <v>0.64184505017188154</v>
+        <v>0.5899364664220994</v>
       </c>
       <c r="C15">
         <f>(C11-C14)/C14</f>
-        <v>0.38809196093166093</v>
+        <v>0.55357847991119258</v>
       </c>
       <c r="D15">
         <f>(D11-D14)/D14</f>
-        <v>0.35783930711540218</v>
+        <v>0.51636936284943702</v>
       </c>
       <c r="E15">
         <f>(E11-E14)/E14</f>
-        <v>0.29264498360479418</v>
+        <v>0.49293761208312409</v>
       </c>
       <c r="F15">
         <f>(F11-F14)/F14</f>
-        <v>0.20333333333330822</v>
+        <v>0.45546031746033044</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -968,7 +967,7 @@
       </c>
       <c r="B16">
         <f>B74</f>
-        <v>16.899999999999999</v>
+        <v>16.599999999999998</v>
       </c>
       <c r="C16">
         <f>C74</f>
@@ -976,15 +975,15 @@
       </c>
       <c r="D16">
         <f>D74</f>
-        <v>23.066666666666666</v>
+        <v>22.966666666666669</v>
       </c>
       <c r="E16">
         <f>E74</f>
-        <v>26.133333333333336</v>
+        <v>25.599999999999998</v>
       </c>
       <c r="F16">
         <f>F74</f>
-        <v>29.233333333333334</v>
+        <v>28.200000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -993,7 +992,7 @@
       </c>
       <c r="B17">
         <f t="shared" ref="B17" si="9">B16^2/7</f>
-        <v>40.801428571428566</v>
+        <v>39.365714285714276</v>
       </c>
       <c r="C17">
         <f>C16^2/7</f>
@@ -1001,15 +1000,15 @@
       </c>
       <c r="D17">
         <f>D16^2/7</f>
-        <v>76.010158730158736</v>
+        <v>75.3525396825397</v>
       </c>
       <c r="E17">
         <f>E16^2/7</f>
-        <v>97.564444444444462</v>
+        <v>93.622857142857129</v>
       </c>
       <c r="F17">
         <f>F16^2/7</f>
-        <v>122.08396825396827</v>
+        <v>113.6057142857143</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1018,23 +1017,23 @@
       </c>
       <c r="B18">
         <f t="shared" ref="B18" si="10">B17/B$4/10000</f>
-        <v>2.4363910373065858E-2</v>
+        <v>5.4508050797167267E-3</v>
       </c>
       <c r="C18">
         <f>C17/C$4/10000</f>
-        <v>2.465078445970258E-2</v>
+        <v>6.1979115212963901E-3</v>
       </c>
       <c r="D18">
         <f>D17/D$4/10000</f>
-        <v>2.8478890494626437E-2</v>
+        <v>6.8892700773357267E-3</v>
       </c>
       <c r="E18">
         <f>E17/E$4/10000</f>
-        <v>3.10714791224352E-2</v>
+        <v>7.3019256838313456E-3</v>
       </c>
       <c r="F18">
         <f>F17/F$4/10000</f>
-        <v>3.4306098235471476E-2</v>
+        <v>7.7528922396984555E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,7 +1042,7 @@
       </c>
       <c r="B19">
         <f>B79</f>
-        <v>11.433333333333332</v>
+        <v>11.533333333333333</v>
       </c>
       <c r="C19">
         <f>C79</f>
@@ -1051,15 +1050,15 @@
       </c>
       <c r="D19">
         <f>D79</f>
-        <v>18.099999999999998</v>
+        <v>17.3</v>
       </c>
       <c r="E19">
         <f>E79</f>
-        <v>20.433333333333334</v>
+        <v>19.833333333333332</v>
       </c>
       <c r="F19">
         <f>F79</f>
-        <v>22.633333333333336</v>
+        <v>22.399999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,7 +1067,7 @@
       </c>
       <c r="B20">
         <f t="shared" ref="B20" si="11">B19^2/7</f>
-        <v>18.67444444444444</v>
+        <v>19.002539682539684</v>
       </c>
       <c r="C20">
         <f>C19^2/7</f>
@@ -1076,15 +1075,15 @@
       </c>
       <c r="D20">
         <f>D19^2/7</f>
-        <v>46.801428571428559</v>
+        <v>42.755714285714291</v>
       </c>
       <c r="E20">
         <f>E19^2/7</f>
-        <v>59.645873015873015</v>
+        <v>56.194444444444443</v>
       </c>
       <c r="F20">
         <f>F19^2/7</f>
-        <v>73.181111111111136</v>
+        <v>71.679999999999964</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,23 +1092,23 @@
       </c>
       <c r="B21">
         <f t="shared" ref="B21" si="12">B20/B$7/10000</f>
-        <v>1.3724481463335067E-2</v>
+        <v>3.4914024404470176E-3</v>
       </c>
       <c r="C21">
         <f>C20/C$7/10000</f>
-        <v>1.8259414717191867E-2</v>
+        <v>4.0722435700211012E-3</v>
       </c>
       <c r="D21">
         <f>D20/D$7/10000</f>
-        <v>2.1292733653971052E-2</v>
+        <v>4.5898211857562004E-3</v>
       </c>
       <c r="E21">
         <f>E20/E$7/10000</f>
-        <v>2.4249575694215948E-2</v>
+        <v>4.971199968546048E-3</v>
       </c>
       <c r="F21">
         <f>F20/F$7/10000</f>
-        <v>2.7418925107197602E-2</v>
+        <v>5.392446963237844E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1118,23 +1117,23 @@
       </c>
       <c r="B22">
         <f t="shared" ref="B22" si="13">(B18-B21)/B21</f>
-        <v>0.77521536519642009</v>
+        <v>0.56120790218008765</v>
       </c>
       <c r="C22">
         <f>(C18-C21)/C21</f>
-        <v>0.3500314682317292</v>
+        <v>0.52198939349403262</v>
       </c>
       <c r="D22">
         <f>(D18-D21)/D21</f>
-        <v>0.33749338893905623</v>
+        <v>0.50098877462056912</v>
       </c>
       <c r="E22">
         <f>(E18-E21)/E21</f>
-        <v>0.28132052759366116</v>
+        <v>0.46884569722247099</v>
       </c>
       <c r="F22">
         <f>(F18-F21)/F21</f>
-        <v>0.25118319195036415</v>
+        <v>0.4377317556487017</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1143,23 +1142,23 @@
       </c>
       <c r="B23">
         <f>B84</f>
-        <v>19.333333333333332</v>
+        <v>19.599999999999998</v>
       </c>
       <c r="C23">
         <f>C84</f>
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D23">
         <f>D84</f>
-        <v>26.433333333333334</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <f>E84</f>
-        <v>29.899999999999995</v>
+        <v>30.5</v>
       </c>
       <c r="F23">
         <f>F84</f>
-        <v>33</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1168,23 +1167,23 @@
       </c>
       <c r="B24">
         <f t="shared" ref="B24" si="14">B23^2/10</f>
-        <v>37.377777777777773</v>
+        <v>38.41599999999999</v>
       </c>
       <c r="C24">
         <f>C23^2/10</f>
-        <v>54.289000000000001</v>
+        <v>55.225000000000001</v>
       </c>
       <c r="D24">
         <f>D23^2/10</f>
-        <v>69.87211111111111</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="E24">
         <f>E23^2/10</f>
-        <v>89.400999999999968</v>
+        <v>93.025000000000006</v>
       </c>
       <c r="F24">
         <f>F23^2/10</f>
-        <v>108.9</v>
+        <v>112.896</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1193,23 +1192,23 @@
       </c>
       <c r="B25">
         <f t="shared" ref="B25" si="15">B24/B$4/10000</f>
-        <v>2.2319532908704365E-2</v>
+        <v>5.3193021323732917E-3</v>
       </c>
       <c r="C25">
         <f>C24/C$4/10000</f>
-        <v>2.3576577880718892E-2</v>
+        <v>6.0300272975431952E-3</v>
       </c>
       <c r="D25">
         <f>D24/D$4/10000</f>
-        <v>2.6179134923608245E-2</v>
+        <v>6.6650412946087879E-3</v>
       </c>
       <c r="E25">
         <f>E24/E$4/10000</f>
-        <v>2.8471656050956005E-2</v>
+        <v>7.2552970232679396E-3</v>
       </c>
       <c r="F25">
         <f>F24/F$4/10000</f>
-        <v>3.0601348819781746E-2</v>
+        <v>7.7044585987261415E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,23 +1217,23 @@
       </c>
       <c r="B26">
         <f>B89</f>
-        <v>13.033333333333333</v>
+        <v>13.566666666666668</v>
       </c>
       <c r="C26">
         <f>C89</f>
-        <v>17</v>
+        <v>16.900000000000002</v>
       </c>
       <c r="D26">
         <f>D89</f>
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="E26">
         <f>E89</f>
-        <v>23.433333333333334</v>
+        <v>23.5</v>
       </c>
       <c r="F26">
         <f>F89</f>
-        <v>26.233333333333334</v>
+        <v>26.599999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,23 +1242,23 @@
       </c>
       <c r="B27">
         <f t="shared" ref="B27" si="16">B26^2/10</f>
-        <v>16.986777777777778</v>
+        <v>18.405444444444448</v>
       </c>
       <c r="C27">
         <f>C26^2/10</f>
-        <v>28.9</v>
+        <v>28.561000000000007</v>
       </c>
       <c r="D27">
         <f>D26^2/10</f>
-        <v>44.1</v>
+        <v>41.209000000000003</v>
       </c>
       <c r="E27">
         <f>E26^2/10</f>
-        <v>54.912111111111109</v>
+        <v>55.225000000000001</v>
       </c>
       <c r="F27">
         <f>F26^2/10</f>
-        <v>68.818777777777782</v>
+        <v>70.755999999999986</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,23 +1267,23 @@
       </c>
       <c r="B28">
         <f t="shared" ref="B28" si="17">B27/B$7/10000</f>
-        <v>1.2484158092438441E-2</v>
+        <v>3.3816960640208967E-3</v>
       </c>
       <c r="C28">
         <f>C27/C$7/10000</f>
-        <v>1.7813848366550509E-2</v>
+        <v>3.9262704486092244E-3</v>
       </c>
       <c r="D28">
         <f>D27/D$7/10000</f>
-        <v>2.0063694267515843E-2</v>
+        <v>4.4237815787590328E-3</v>
       </c>
       <c r="E28">
         <f>E27/E$7/10000</f>
-        <v>2.2325021457288752E-2</v>
+        <v>4.8854387827317837E-3</v>
       </c>
       <c r="F28">
         <f>F27/F$7/10000</f>
-        <v>2.5784480246450768E-2</v>
+        <v>5.3229349516023582E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1293,23 +1292,23 @@
       </c>
       <c r="B29">
         <f t="shared" ref="B29" si="18">(B25-B28)/B28</f>
-        <v>0.78782844172913313</v>
+        <v>0.57296872092299955</v>
       </c>
       <c r="C29">
         <f>(C25-C28)/C28</f>
-        <v>0.32349716892107372</v>
+        <v>0.53581557268403912</v>
       </c>
       <c r="D29">
         <f>(D25-D28)/D28</f>
-        <v>0.30480132793857495</v>
+        <v>0.50663887354006243</v>
       </c>
       <c r="E29">
         <f>(E25-E28)/E28</f>
-        <v>0.27532491314405777</v>
+        <v>0.48508605796325338</v>
       </c>
       <c r="F29">
         <f>(F25-F28)/F28</f>
-        <v>0.18681270777191719</v>
+        <v>0.44740799366839445</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1550,53 +1549,53 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>30.22</v>
+        <v>30.42</v>
       </c>
       <c r="C41">
-        <v>33.479999999999997</v>
+        <v>34.29</v>
       </c>
       <c r="D41">
-        <v>36.18</v>
+        <v>38.06</v>
       </c>
       <c r="E41">
-        <v>39.14</v>
+        <v>41.26</v>
       </c>
       <c r="F41">
-        <v>41.73</v>
+        <v>44.37</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>30.26</v>
+        <v>30.34</v>
       </c>
       <c r="C42">
-        <v>33.659999999999997</v>
+        <v>34.17</v>
       </c>
       <c r="D42">
-        <v>36.29</v>
+        <v>37.9</v>
       </c>
       <c r="E42">
-        <v>39.22</v>
+        <v>41.05</v>
       </c>
       <c r="F42">
-        <v>41.58</v>
+        <v>44.26</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>30.31</v>
+        <v>30.28</v>
       </c>
       <c r="C43">
-        <v>33.880000000000003</v>
+        <v>34.07</v>
       </c>
       <c r="D43">
-        <v>36.39</v>
+        <v>37.770000000000003</v>
       </c>
       <c r="E43">
-        <v>39.42</v>
+        <v>40.9</v>
       </c>
       <c r="F43">
-        <v>42</v>
+        <v>44.02</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,23 +1604,23 @@
       </c>
       <c r="B44">
         <f>AVERAGE(B41:B43)</f>
-        <v>30.263333333333335</v>
+        <v>30.346666666666668</v>
       </c>
       <c r="C44">
         <f>AVERAGE(C41:C43)</f>
-        <v>33.673333333333325</v>
+        <v>34.176666666666669</v>
       </c>
       <c r="D44">
         <f t="shared" ref="D44" si="23">AVERAGE(D41:D43)</f>
-        <v>36.286666666666669</v>
+        <v>37.910000000000004</v>
       </c>
       <c r="E44">
         <f>AVERAGE(E41:E43)</f>
-        <v>39.26</v>
+        <v>41.07</v>
       </c>
       <c r="F44">
         <f>AVERAGE(F41:F43)</f>
-        <v>41.77</v>
+        <v>44.216666666666669</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1630,23 +1629,23 @@
       </c>
       <c r="B45">
         <f>_xlfn.STDEV.S(B41:B43)</f>
-        <v>4.5092497528228768E-2</v>
+        <v>7.0237691685685277E-2</v>
       </c>
       <c r="C45">
         <f>_xlfn.STDEV.S(C41:C43)</f>
-        <v>0.20033305601755921</v>
+        <v>0.11015141094572141</v>
       </c>
       <c r="D45">
         <f t="shared" ref="D45" si="24">_xlfn.STDEV.S(D41:D43)</f>
-        <v>0.10503967504392528</v>
+        <v>0.14525839046333922</v>
       </c>
       <c r="E45">
         <f>_xlfn.STDEV.S(E41:E43)</f>
-        <v>0.14422205101856042</v>
+        <v>0.18083141320025101</v>
       </c>
       <c r="F45">
         <f>_xlfn.STDEV.S(F41:F43)</f>
-        <v>0.21283796653792869</v>
+        <v>0.17897858344878093</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1654,53 +1653,53 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <v>30.11</v>
+        <v>29.96</v>
       </c>
       <c r="C46">
-        <v>33.33</v>
+        <v>33.74</v>
       </c>
       <c r="D46">
-        <v>36.01</v>
+        <v>37.369999999999997</v>
       </c>
       <c r="E46">
-        <v>38.93</v>
+        <v>40.43</v>
       </c>
       <c r="F46">
-        <v>41.5</v>
+        <v>43.36</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>30.15</v>
+        <v>29.89</v>
       </c>
       <c r="C47">
-        <v>33.520000000000003</v>
+        <v>33.57</v>
       </c>
       <c r="D47">
-        <v>36.119999999999997</v>
+        <v>37.18</v>
       </c>
       <c r="E47">
-        <v>39.03</v>
+        <v>40.22</v>
       </c>
       <c r="F47">
-        <v>41.36</v>
+        <v>43.38</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>30.21</v>
+        <v>29.81</v>
       </c>
       <c r="C48">
-        <v>33.729999999999997</v>
+        <v>33.47</v>
       </c>
       <c r="D48">
-        <v>36.22</v>
+        <v>37.090000000000003</v>
       </c>
       <c r="E48">
-        <v>39.22</v>
+        <v>40.11</v>
       </c>
       <c r="F48">
-        <v>41.77</v>
+        <v>43.11</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,23 +1708,23 @@
       </c>
       <c r="B49">
         <f>AVERAGE(B46:B48)</f>
-        <v>30.156666666666666</v>
+        <v>29.886666666666667</v>
       </c>
       <c r="C49">
         <f>AVERAGE(C46:C48)</f>
-        <v>33.526666666666664</v>
+        <v>33.593333333333334</v>
       </c>
       <c r="D49">
         <f t="shared" ref="D49" si="25">AVERAGE(D46:D48)</f>
-        <v>36.116666666666667</v>
+        <v>37.213333333333331</v>
       </c>
       <c r="E49">
         <f>AVERAGE(E46:E48)</f>
-        <v>39.06</v>
+        <v>40.253333333333337</v>
       </c>
       <c r="F49">
         <f>AVERAGE(F46:F48)</f>
-        <v>41.543333333333329</v>
+        <v>43.283333333333339</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1734,23 +1733,23 @@
       </c>
       <c r="B50">
         <f>_xlfn.VAR.P(B46:B48)</f>
-        <v>1.6888888888889435E-3</v>
+        <v>3.7555555555556634E-3</v>
       </c>
       <c r="C50">
         <f>_xlfn.VAR.P(C46:C48)</f>
-        <v>2.6688888888888668E-2</v>
+        <v>1.2422222222222506E-2</v>
       </c>
       <c r="D50">
         <f t="shared" ref="D50" si="26">_xlfn.VAR.P(D46:D48)</f>
-        <v>7.3555555555556125E-3</v>
+        <v>1.3622222222221682E-2</v>
       </c>
       <c r="E50">
         <f>_xlfn.VAR.P(E46:E48)</f>
-        <v>1.4466666666666546E-2</v>
+        <v>1.7622222222222268E-2</v>
       </c>
       <c r="F50">
         <f>_xlfn.VAR.P(F46:F48)</f>
-        <v>2.8955555555556099E-2</v>
+        <v>1.5088888888889091E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,53 +1757,53 @@
         <v>34</v>
       </c>
       <c r="B51">
-        <v>29.82</v>
+        <v>29.5</v>
       </c>
       <c r="C51">
-        <v>31.81</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="D51">
-        <v>34.630000000000003</v>
+        <v>36.229999999999997</v>
       </c>
       <c r="E51">
-        <v>37.020000000000003</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="F51">
-        <v>39.68</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>29.52</v>
+        <v>29.39</v>
       </c>
       <c r="C52">
-        <v>31.87</v>
+        <v>32.92</v>
       </c>
       <c r="D52">
-        <v>34.630000000000003</v>
+        <v>36.03</v>
       </c>
       <c r="E52">
-        <v>37.21</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="F52">
-        <v>39.93</v>
+        <v>41.91</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>29.64</v>
+        <v>29.29</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="D53">
-        <v>34.71</v>
+        <v>35.840000000000003</v>
       </c>
       <c r="E53">
-        <v>37.54</v>
+        <v>39.18</v>
       </c>
       <c r="F53">
-        <v>39.700000000000003</v>
+        <v>41.76</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1813,23 +1812,23 @@
       </c>
       <c r="B54">
         <f>AVERAGE(B51:B53)</f>
-        <v>29.66</v>
+        <v>29.393333333333334</v>
       </c>
       <c r="C54">
         <f>AVERAGE(C51:C53)</f>
-        <v>31.893333333333334</v>
+        <v>32.923333333333339</v>
       </c>
       <c r="D54">
         <f>AVERAGE(D51:D53)</f>
-        <v>34.656666666666666</v>
+        <v>36.033333333333331</v>
       </c>
       <c r="E54">
         <f>AVERAGE(E51:E53)</f>
-        <v>37.256666666666668</v>
+        <v>39.333333333333336</v>
       </c>
       <c r="F54">
         <f t="shared" ref="F54" si="27">AVERAGE(F51:F53)</f>
-        <v>39.770000000000003</v>
+        <v>41.956666666666671</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1838,23 +1837,23 @@
       </c>
       <c r="B55">
         <f>_xlfn.STDEV.S(B51:B53)</f>
-        <v>0.1509966887054153</v>
+        <v>0.10503967504392528</v>
       </c>
       <c r="C55">
         <f>_xlfn.STDEV.S(C51:C53)</f>
-        <v>9.7125348562223532E-2</v>
+        <v>5.50757054728606E-2</v>
       </c>
       <c r="D55">
         <f t="shared" ref="D55" si="28">_xlfn.STDEV.S(D51:D53)</f>
-        <v>4.6188021535169078E-2</v>
+        <v>0.19502136635079773</v>
       </c>
       <c r="E55">
         <f>_xlfn.STDEV.S(E51:E53)</f>
-        <v>0.26312227829154322</v>
+        <v>0.13868429375143249</v>
       </c>
       <c r="F55">
         <f>_xlfn.STDEV.S(F51:F53)</f>
-        <v>0.13892443989449726</v>
+        <v>0.223681320930771</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1862,53 +1861,53 @@
         <v>35</v>
       </c>
       <c r="B56">
-        <v>29.73</v>
+        <v>29.15</v>
       </c>
       <c r="C56">
-        <v>31.7</v>
+        <v>32.5</v>
       </c>
       <c r="D56">
-        <v>34.479999999999997</v>
+        <v>35.67</v>
       </c>
       <c r="E56">
-        <v>36.86</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="F56">
-        <v>39.520000000000003</v>
+        <v>41.38</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>29.43</v>
+        <v>29.04</v>
       </c>
       <c r="C57">
-        <v>31.77</v>
+        <v>32.46</v>
       </c>
       <c r="D57">
-        <v>34.49</v>
+        <v>35.44</v>
       </c>
       <c r="E57">
-        <v>37.049999999999997</v>
+        <v>38.67</v>
       </c>
       <c r="F57">
-        <v>39.76</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>29.56</v>
+        <v>28.95</v>
       </c>
       <c r="C58">
-        <v>31.9</v>
+        <v>32.42</v>
       </c>
       <c r="D58">
-        <v>34.58</v>
+        <v>35.21</v>
       </c>
       <c r="E58">
-        <v>37.39</v>
+        <v>38.47</v>
       </c>
       <c r="F58">
-        <v>39.520000000000003</v>
+        <v>40.909999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,23 +1916,23 @@
       </c>
       <c r="B59">
         <f>AVERAGE(B56:B58)</f>
-        <v>29.573333333333334</v>
+        <v>29.046666666666667</v>
       </c>
       <c r="C59">
         <f>AVERAGE(C56:C58)</f>
-        <v>31.790000000000003</v>
+        <v>32.46</v>
       </c>
       <c r="D59">
         <f t="shared" ref="D59" si="29">AVERAGE(D56:D58)</f>
-        <v>34.516666666666666</v>
+        <v>35.44</v>
       </c>
       <c r="E59">
         <f>AVERAGE(E56:E58)</f>
-        <v>37.1</v>
+        <v>38.613333333333337</v>
       </c>
       <c r="F59">
         <f>AVERAGE(F56:F58)</f>
-        <v>39.6</v>
+        <v>41.11</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1942,23 +1941,23 @@
       </c>
       <c r="B60">
         <f>_xlfn.STDEV.S(B56:B58)</f>
-        <v>0.15044378795195718</v>
+        <v>0.10016652800877776</v>
       </c>
       <c r="C60">
         <f>_xlfn.STDEV.S(C56:C58)</f>
-        <v>0.10148891565092179</v>
+        <v>3.9999999999999147E-2</v>
       </c>
       <c r="D60">
         <f t="shared" ref="D60" si="30">_xlfn.STDEV.S(D56:D58)</f>
-        <v>5.50757054728606E-2</v>
+        <v>0.23000000000000043</v>
       </c>
       <c r="E60">
         <f>_xlfn.STDEV.S(E56:E58)</f>
-        <v>0.26851443164195188</v>
+        <v>0.12503332889007571</v>
       </c>
       <c r="F60">
         <f>_xlfn.STDEV.S(F56:F58)</f>
-        <v>0.13856406460550721</v>
+        <v>0.24269322199023491</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2000,7 +1999,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="C63">
         <v>12.5</v>
@@ -2021,7 +2020,7 @@
       </c>
       <c r="B64">
         <f>AVERAGE(B61:B63)</f>
-        <v>10.566666666666666</v>
+        <v>10.699999999999998</v>
       </c>
       <c r="C64">
         <f>AVERAGE(C61:C63)</f>
@@ -2046,7 +2045,7 @@
       </c>
       <c r="B65">
         <f>_xlfn.STDEV.S(B61:B63)</f>
-        <v>0.25166114784235827</v>
+        <v>0.10000000000000053</v>
       </c>
       <c r="C65">
         <f>_xlfn.STDEV.S(C61:C63)</f>
@@ -2073,10 +2072,10 @@
         <v>7.2</v>
       </c>
       <c r="C66">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D66">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="E66">
         <v>12.8</v>
@@ -2087,16 +2086,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="C67">
         <v>9.1999999999999993</v>
       </c>
       <c r="D67">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="E67">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F67">
         <v>14.5</v>
@@ -2110,10 +2109,10 @@
         <v>9.1</v>
       </c>
       <c r="D68">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="E68">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F68">
         <v>14.6</v>
@@ -2125,19 +2124,19 @@
       </c>
       <c r="B69">
         <f>AVERAGE(B66:B68)</f>
-        <v>7.4333333333333336</v>
+        <v>7.3666666666666671</v>
       </c>
       <c r="C69">
         <f>AVERAGE(C66:C68)</f>
-        <v>9.1666666666666661</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="D69">
         <f t="shared" ref="D69" si="33">AVERAGE(D66:D68)</f>
-        <v>11.5</v>
+        <v>11.066666666666668</v>
       </c>
       <c r="E69">
         <f>AVERAGE(E66:E68)</f>
-        <v>12.766666666666666</v>
+        <v>12.833333333333334</v>
       </c>
       <c r="F69">
         <f>AVERAGE(F66:F68)</f>
@@ -2150,19 +2149,19 @@
       </c>
       <c r="B70">
         <f>_xlfn.STDEV.S(B66:B68)</f>
-        <v>0.25166114784235832</v>
+        <v>0.15275252316519461</v>
       </c>
       <c r="C70">
         <f>_xlfn.STDEV.S(C66:C68)</f>
-        <v>5.7735026918962373E-2</v>
+        <v>0.10000000000000053</v>
       </c>
       <c r="D70">
         <f t="shared" ref="D70" si="34">_xlfn.STDEV.S(D66:D68)</f>
-        <v>0.19999999999999929</v>
+        <v>0.11547005383792475</v>
       </c>
       <c r="E70">
         <f>_xlfn.STDEV.S(E66:E68)</f>
-        <v>5.77350269189634E-2</v>
+        <v>5.7735026918962373E-2</v>
       </c>
       <c r="F70">
         <f>_xlfn.STDEV.S(F66:F68)</f>
@@ -2174,7 +2173,7 @@
         <v>15</v>
       </c>
       <c r="B71">
-        <v>17</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C71">
         <v>20</v>
@@ -2183,15 +2182,15 @@
         <v>23</v>
       </c>
       <c r="E71">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="F71">
-        <v>29.2</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="C72">
         <v>19.899999999999999</v>
@@ -2200,27 +2199,27 @@
         <v>23.2</v>
       </c>
       <c r="E72">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
       <c r="F72">
-        <v>29.8</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>16.899999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="C73">
         <v>19.899999999999999</v>
       </c>
       <c r="D73">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="E73">
-        <v>26.1</v>
+        <v>25.4</v>
       </c>
       <c r="F73">
-        <v>28.7</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2229,7 +2228,7 @@
       </c>
       <c r="B74">
         <f>AVERAGE(B71:B73)</f>
-        <v>16.899999999999999</v>
+        <v>16.599999999999998</v>
       </c>
       <c r="C74">
         <f>AVERAGE(C71:C73)</f>
@@ -2237,15 +2236,15 @@
       </c>
       <c r="D74">
         <f t="shared" ref="D74" si="35">AVERAGE(D71:D73)</f>
-        <v>23.066666666666666</v>
+        <v>22.966666666666669</v>
       </c>
       <c r="E74">
         <f>AVERAGE(E71:E73)</f>
-        <v>26.133333333333336</v>
+        <v>25.599999999999998</v>
       </c>
       <c r="F74">
         <f>AVERAGE(F71:F73)</f>
-        <v>29.233333333333334</v>
+        <v>28.200000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2262,15 +2261,15 @@
       </c>
       <c r="D75">
         <f t="shared" ref="D75" si="36">_xlfn.STDEV.S(D71:D73)</f>
-        <v>0.11547005383792475</v>
+        <v>0.25166114784235838</v>
       </c>
       <c r="E75">
         <f>_xlfn.STDEV.S(E71:E73)</f>
-        <v>0.15275252316519489</v>
+        <v>0.17320508075688815</v>
       </c>
       <c r="F75">
         <f>_xlfn.STDEV.S(F71:F73)</f>
-        <v>0.55075705472861092</v>
+        <v>9.9999999999999645E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2284,10 +2283,10 @@
         <v>14.5</v>
       </c>
       <c r="D76">
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="E76">
-        <v>20.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F76">
         <v>22.4</v>
@@ -2301,30 +2300,30 @@
         <v>14.4</v>
       </c>
       <c r="D77">
-        <v>18.5</v>
+        <v>17.3</v>
       </c>
       <c r="E77">
-        <v>20.7</v>
+        <v>19.8</v>
       </c>
       <c r="F77">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="C78">
         <v>14.3</v>
       </c>
       <c r="D78">
-        <v>17.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E78">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="F78">
-        <v>22.9</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2333,23 +2332,23 @@
       </c>
       <c r="B79">
         <f>AVERAGE(B76:B78)</f>
-        <v>11.433333333333332</v>
+        <v>11.533333333333333</v>
       </c>
       <c r="C79">
         <f>AVERAGE(C76:C78)</f>
         <v>14.4</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="37">AVERAGE(D76:D78)</f>
-        <v>18.099999999999998</v>
+        <f t="shared" ref="D79:E79" si="37">AVERAGE(D76:D78)</f>
+        <v>17.3</v>
       </c>
       <c r="E79">
-        <f>AVERAGE(E76:E78)</f>
-        <v>20.433333333333334</v>
+        <f t="shared" si="37"/>
+        <v>19.833333333333332</v>
       </c>
       <c r="F79">
         <f>AVERAGE(F76:F78)</f>
-        <v>22.633333333333336</v>
+        <v>22.399999999999995</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2358,7 +2357,7 @@
       </c>
       <c r="B80">
         <f>_xlfn.STDEV.S(B76:B78)</f>
-        <v>0.15275252316519414</v>
+        <v>0.11547005383792475</v>
       </c>
       <c r="C80">
         <f>_xlfn.STDEV.S(C76:C78)</f>
@@ -2366,15 +2365,15 @@
       </c>
       <c r="D80">
         <f t="shared" ref="D80" si="38">_xlfn.STDEV.S(D76:D78)</f>
-        <v>0.36055512754639862</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="E80">
         <f>_xlfn.STDEV.S(E76:E78)</f>
-        <v>0.37859388972001828</v>
+        <v>5.7735026918961346E-2</v>
       </c>
       <c r="F80">
         <f>_xlfn.STDEV.S(F76:F78)</f>
-        <v>0.25166114784235816</v>
+        <v>4.3511678576336583E-15</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2385,16 +2384,16 @@
         <v>19.7</v>
       </c>
       <c r="C81">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D81">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="E81">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="F81">
-        <v>33</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2402,33 +2401,33 @@
         <v>19.399999999999999</v>
       </c>
       <c r="C82">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="D82">
-        <v>26.5</v>
+        <v>26.8</v>
       </c>
       <c r="E82">
-        <v>29.5</v>
+        <v>30.5</v>
       </c>
       <c r="F82">
-        <v>33.6</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>18.899999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="C83">
         <v>23.4</v>
       </c>
       <c r="D83">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="E83">
-        <v>29.9</v>
+        <v>30.6</v>
       </c>
       <c r="F83">
-        <v>32.4</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2437,23 +2436,23 @@
       </c>
       <c r="B84">
         <f>AVERAGE(B81:B83)</f>
-        <v>19.333333333333332</v>
+        <v>19.599999999999998</v>
       </c>
       <c r="C84">
         <f>AVERAGE(C81:C83)</f>
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D84">
         <f t="shared" ref="D84" si="39">AVERAGE(D81:D83)</f>
-        <v>26.433333333333334</v>
+        <v>27</v>
       </c>
       <c r="E84">
         <f>AVERAGE(E81:E83)</f>
-        <v>29.899999999999995</v>
+        <v>30.5</v>
       </c>
       <c r="F84">
         <f>AVERAGE(F81:F83)</f>
-        <v>33</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2462,23 +2461,23 @@
       </c>
       <c r="B85">
         <f>_xlfn.STDEV.S(B81:B83)</f>
-        <v>0.40414518843273839</v>
+        <v>0.17320508075688815</v>
       </c>
       <c r="C85">
         <f>_xlfn.STDEV.S(C81:C83)</f>
-        <v>0.17320508075688609</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="D85">
         <f t="shared" ref="D85" si="40">_xlfn.STDEV.S(D81:D83)</f>
-        <v>0.11547005383792475</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="E85">
         <f>_xlfn.STDEV.S(E81:E83)</f>
-        <v>0.40000000000000041</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="F85">
         <f>_xlfn.STDEV.S(F81:F83)</f>
-        <v>0.60000000000000142</v>
+        <v>0.1732050807568902</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2486,16 +2485,16 @@
         <v>25</v>
       </c>
       <c r="B86">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="C86">
-        <v>17.399999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D86">
-        <v>21.7</v>
+        <v>20.3</v>
       </c>
       <c r="E86">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="F86">
         <v>26.6</v>
@@ -2503,24 +2502,24 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>13.1</v>
+        <v>13.6</v>
       </c>
       <c r="C87">
         <v>16.600000000000001</v>
       </c>
       <c r="D87">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="E87">
-        <v>24.1</v>
+        <v>23.4</v>
       </c>
       <c r="F87">
-        <v>26</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="C88">
         <v>17</v>
@@ -2529,10 +2528,10 @@
         <v>20.3</v>
       </c>
       <c r="E88">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F88">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2541,23 +2540,23 @@
       </c>
       <c r="B89">
         <f>AVERAGE(B86:B88)</f>
-        <v>13.033333333333333</v>
+        <v>13.566666666666668</v>
       </c>
       <c r="C89">
         <f>AVERAGE(C86:C88)</f>
-        <v>17</v>
+        <v>16.900000000000002</v>
       </c>
       <c r="D89">
         <f t="shared" ref="D89" si="41">AVERAGE(D86:D88)</f>
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="E89">
         <f>AVERAGE(E86:E88)</f>
-        <v>23.433333333333334</v>
+        <v>23.5</v>
       </c>
       <c r="F89">
         <f>AVERAGE(F86:F88)</f>
-        <v>26.233333333333334</v>
+        <v>26.599999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2570,19 +2569,19 @@
       </c>
       <c r="C90">
         <f>_xlfn.STDEV.S(C86:C88)</f>
-        <v>0.39999999999999858</v>
+        <v>0.26457513110645881</v>
       </c>
       <c r="D90">
         <f t="shared" ref="D90" si="42">_xlfn.STDEV.S(D86:D88)</f>
-        <v>0.69999999999999929</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <f>_xlfn.STDEV.S(E86:E88)</f>
-        <v>0.61101009266077999</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="F90">
         <f>_xlfn.STDEV.S(F86:F88)</f>
-        <v>0.32145502536643233</v>
+        <v>9.9999999999999645E-2</v>
       </c>
     </row>
   </sheetData>
